--- a/GRAFIK PLAN VS AKTUAL.xlsx
+++ b/GRAFIK PLAN VS AKTUAL.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KURSUS\MICROSOFT OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DD877C-8781-4967-81A5-AE597D69F4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFA362B-2CD8-40E8-BFBA-FC0F45E614AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{D65A94EC-8D5B-4F9D-B5D2-71E481CBBCF7}"/>
   </bookViews>
   <sheets>
     <sheet name="GRAFIK" sheetId="12" r:id="rId1"/>
     <sheet name="RESUME" sheetId="1" r:id="rId2"/>
-    <sheet name="HOLIDAYS" sheetId="2" r:id="rId3"/>
+    <sheet name="HELPER DB" sheetId="2" r:id="rId3"/>
     <sheet name="0-PLAN" sheetId="13" r:id="rId4"/>
     <sheet name="1-RESET" sheetId="3" r:id="rId5"/>
     <sheet name="2-DFD" sheetId="4" r:id="rId6"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="50">
   <si>
     <t>Job Planing</t>
   </si>
@@ -194,6 +194,12 @@
   <si>
     <t>GAJI/HARI/ PERORANG</t>
   </si>
+  <si>
+    <t>TOTAL BIAYA</t>
+  </si>
+  <si>
+    <t>TOTAL HARI</t>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -445,13 +451,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -592,6 +609,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6453,10 +6474,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEB1611-EE57-4DAA-AC88-37055CADE285}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6465,10 +6486,11 @@
     <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -6481,8 +6503,14 @@
       <c r="F1" s="50" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="59">
         <v>44927</v>
       </c>
@@ -6495,8 +6523,15 @@
       <c r="F2" s="49">
         <v>350000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="49">
+        <v>2</v>
+      </c>
+      <c r="H2" s="49">
+        <f>_xlfn.IFNA(F2*G2,0)</f>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="59">
         <v>44948</v>
       </c>
@@ -6509,8 +6544,15 @@
       <c r="F3" s="49">
         <v>250000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="49">
+        <v>3</v>
+      </c>
+      <c r="H3" s="49">
+        <f t="shared" ref="H3:H9" si="0">_xlfn.IFNA(F3*G3,0)</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="59">
         <v>44949</v>
       </c>
@@ -6523,8 +6565,15 @@
       <c r="F4" s="49">
         <v>250000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="49">
+        <v>5</v>
+      </c>
+      <c r="H4" s="49">
+        <f t="shared" si="0"/>
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="59">
         <v>44975</v>
       </c>
@@ -6537,8 +6586,15 @@
       <c r="F5" s="49">
         <v>300000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="49">
+        <v>5</v>
+      </c>
+      <c r="H5" s="49">
+        <f t="shared" si="0"/>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="59">
         <v>45007</v>
       </c>
@@ -6551,8 +6607,15 @@
       <c r="F6" s="49">
         <v>350000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="49">
+        <v>8</v>
+      </c>
+      <c r="H6" s="49">
+        <f t="shared" si="0"/>
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <v>45008</v>
       </c>
@@ -6565,8 +6628,15 @@
       <c r="F7" s="49">
         <v>400000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="49">
+        <v>12</v>
+      </c>
+      <c r="H7" s="49">
+        <f t="shared" si="0"/>
+        <v>4800000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>45023</v>
       </c>
@@ -6579,8 +6649,15 @@
       <c r="F8" s="49">
         <v>250000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="49">
+        <v>3</v>
+      </c>
+      <c r="H8" s="49">
+        <f t="shared" si="0"/>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>45037</v>
       </c>
@@ -6593,38 +6670,55 @@
       <c r="F9" s="49">
         <v>350000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="49">
+        <v>90</v>
+      </c>
+      <c r="H9" s="49">
+        <f t="shared" si="0"/>
+        <v>31500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>45038</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="60">
+        <f>SUM(H2:H9)</f>
+        <v>44050000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>45039</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
         <v>45041</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="59">
         <v>45042</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="59">
         <v>45043</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
         <v>45044</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="59">
         <v>45045</v>
       </c>
@@ -6690,6 +6784,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D10:G10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
